--- a/Project3646_I. Orlov(2021).xlsx
+++ b/Project3646_I. Orlov(2021).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12555C49-CB19-E44D-88D5-F70947540A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D0FB1B-905E-4892-AECC-67F26936B3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
+    <workbookView xWindow="16455" yWindow="2340" windowWidth="15945" windowHeight="18375" xr2:uid="{77F1F6C2-35A7-D941-8ED6-BBEDF1D994A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3646" sheetId="1" r:id="rId1"/>
@@ -737,12 +737,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,55 +757,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>796636</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>98136</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE88FB41-9D5D-CC25-BFF0-59F2150CA863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8797636" y="300181"/>
-          <a:ext cx="10760364" cy="6725228"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1128,17 +1078,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D0014A-5D19-9042-B4C9-4EE58EB2FBC0}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.1640625" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.125" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>204</v>
       </c>
@@ -1160,7 +1108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1119,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1130,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1193,7 +1141,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1204,7 +1152,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1163,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1174,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1248,7 +1196,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1207,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1270,7 +1218,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1229,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1292,7 +1240,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1251,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1314,7 +1262,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1325,18 +1273,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1347,7 +1295,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1306,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1317,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1380,25 +1328,23 @@
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1409,18 +1355,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1375,7 @@
       </c>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1462,7 +1408,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1419,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +1430,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1495,7 +1441,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1452,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1517,7 +1463,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1528,7 +1474,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1539,7 +1485,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1550,7 +1496,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1561,7 +1507,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1518,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1583,7 +1529,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1594,7 +1540,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1605,7 +1551,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1616,7 +1562,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1627,7 +1573,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1638,7 +1584,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1649,7 +1595,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +1606,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1671,7 +1617,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1682,7 +1628,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1693,7 +1639,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1704,7 +1650,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1715,7 +1661,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1726,7 +1672,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1683,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1748,7 +1694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1759,7 +1705,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +1716,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1781,7 +1727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1738,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1803,7 +1749,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1760,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1825,7 +1771,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1836,51 +1782,51 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1891,18 +1837,18 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1913,29 +1859,29 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1946,7 +1892,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1954,7 +1900,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1965,7 +1911,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1976,7 +1922,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1987,7 +1933,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1998,7 +1944,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2009,7 +1955,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2020,7 +1966,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2031,7 +1977,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2042,7 +1988,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2053,7 +1999,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2064,7 +2010,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2075,7 +2021,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2086,7 +2032,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2097,7 +2043,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2108,7 +2054,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2119,7 +2065,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2130,7 +2076,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2141,7 +2087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2152,7 +2098,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2160,7 +2106,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2171,7 +2117,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2182,7 +2128,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2193,7 +2139,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2204,7 +2150,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2212,7 +2158,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2223,7 +2169,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2234,7 +2180,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2245,7 +2191,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2256,7 +2202,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2264,7 +2210,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2272,7 +2218,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2283,7 +2229,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2291,7 +2237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2302,7 +2248,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2313,7 +2259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2324,7 +2270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2335,7 +2281,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2346,7 +2292,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2357,7 +2303,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2368,7 +2314,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2379,7 +2325,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2390,7 +2336,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2401,7 +2347,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2412,7 +2358,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2423,7 +2369,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2434,7 +2380,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2445,7 +2391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2456,7 +2402,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2467,7 +2413,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2478,7 +2424,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2489,7 +2435,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2500,7 +2446,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2508,7 +2454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2519,7 +2465,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2530,7 +2476,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2541,7 +2487,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2552,7 +2498,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2560,7 +2506,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2571,7 +2517,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2582,7 +2528,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2590,7 +2536,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2601,7 +2547,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2612,7 +2558,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2623,7 +2569,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2634,7 +2580,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2645,7 +2591,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2656,7 +2602,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2664,7 +2610,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2672,7 +2618,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2683,7 +2629,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2694,7 +2640,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2705,7 +2651,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2716,7 +2662,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -2727,7 +2673,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2738,7 +2684,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -2749,7 +2695,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2760,7 +2706,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2771,7 +2717,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -2782,7 +2728,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2793,7 +2739,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2801,7 +2747,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2812,7 +2758,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2823,7 +2769,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2834,7 +2780,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2845,7 +2791,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2853,7 +2799,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2864,7 +2810,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2875,7 +2821,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2886,7 +2832,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2897,7 +2843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2908,7 +2854,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2919,7 +2865,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2930,7 +2876,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2941,7 +2887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2952,7 +2898,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2963,7 +2909,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -2974,7 +2920,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -2985,7 +2931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -2996,7 +2942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3007,7 +2953,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3018,7 +2964,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3029,7 +2975,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3040,7 +2986,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3051,7 +2997,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3062,7 +3008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3073,7 +3019,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3084,7 +3030,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3095,7 +3041,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3106,7 +3052,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3117,7 +3063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3128,7 +3074,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3139,7 +3085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3150,7 +3096,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3161,7 +3107,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3172,7 +3118,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3183,7 +3129,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3194,7 +3140,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3205,7 +3151,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3216,7 +3162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3227,7 +3173,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3238,7 +3184,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3249,7 +3195,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3257,7 +3203,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3268,7 +3214,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3276,7 +3222,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3287,7 +3233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3295,7 +3241,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3306,7 +3252,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3317,6 +3263,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>